--- a/2025_presentation-dates.xlsx
+++ b/2025_presentation-dates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,11 +528,16 @@
           <t>Follow-Up Date</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>original_unit</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Crew 0392</t>
+          <t>CREW 0392</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -554,11 +559,16 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>crew 0392</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pack 0059 (F)</t>
+          <t>PACK 0059(F)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -580,11 +590,16 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>pack 0059 (f)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pack 0091 (F)</t>
+          <t>PACK 0091(F)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -612,11 +627,16 @@
       <c r="R4" s="2" t="n">
         <v>45773</v>
       </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>pack 0091 (f)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pack 0092 (F)</t>
+          <t>PACK 0092(F)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -638,11 +658,16 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>pack 0092 (f)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pack 0100 (F)</t>
+          <t>PACK 0100(F)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -664,11 +689,16 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>pack 0100 (f)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pack 0183 (F)</t>
+          <t>PACK 0183(F)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -690,11 +720,16 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>pack 0183 (f)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pack 0194 (F)</t>
+          <t>PACK 0194(F)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -716,11 +751,16 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>pack 0194 (f)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pack 0195 (F)</t>
+          <t>PACK 0195(F)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -742,11 +782,16 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>pack 0195 (f)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pack 0199 (F)</t>
+          <t>PACK 0199(F)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -768,11 +813,16 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>pack 0199 (f)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pack 0209 (F)</t>
+          <t>PACK 0209(F)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -794,11 +844,16 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>pack 0209 (f)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pack 0210 (F)</t>
+          <t>PACK 0210(F)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -820,11 +875,16 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>pack 0210 (f)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pack 0229 (F)</t>
+          <t>PACK 0229(F)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -846,11 +906,16 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>pack 0229 (f)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pack 0237 (B)</t>
+          <t>PACK 0237(B)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -872,11 +937,16 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>pack 0237 (b)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pack 0239 (F)</t>
+          <t>PACK 0239(F)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -898,11 +968,16 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>pack 0239 (f)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pack 0287 (F)</t>
+          <t>PACK 0287(F)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -924,11 +999,16 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>pack 0287 (f)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pack 0288 (F)</t>
+          <t>PACK 0288(F)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -950,11 +1030,16 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>pack 0288 (f)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pack 0297 (F)</t>
+          <t>PACK 0297(F)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -976,11 +1061,16 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>pack 0297 (f)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pack 0335 (F)</t>
+          <t>PACK 0335(F)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1002,11 +1092,16 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>pack 0335 (f)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pack 0397 (F)</t>
+          <t>PACK 0397(F)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1028,11 +1123,16 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>pack 0397 (f)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pack 0495 (F)</t>
+          <t>PACK 0495(F)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -1054,11 +1154,16 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>pack 0495 (f)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ship 5297</t>
+          <t>SHIP 5297</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1080,11 +1185,16 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>ship 5297</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Troop 0010 (B)</t>
+          <t>TROOP 0010(B)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1106,11 +1216,16 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>troop 0010 (b)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Troop 0021 (B)</t>
+          <t>TROOP 0021(B)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1132,11 +1247,16 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>troop 0021 (b)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Troop 0029 (B)</t>
+          <t>TROOP 0029(B)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1158,11 +1278,16 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>troop 0029 (b)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Troop 0093 (B)</t>
+          <t>TROOP 0093(B)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1184,11 +1309,16 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>troop 0093 (b)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Troop 0182 (B)</t>
+          <t>TROOP 0182(B)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1216,11 +1346,16 @@
       <c r="R27" s="2" t="n">
         <v>45699</v>
       </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>troop 0182 (b)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Troop 0188 (B)</t>
+          <t>TROOP 0188(B)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -1248,11 +1383,16 @@
       <c r="R28" s="2" t="n">
         <v>45699</v>
       </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>troop 0188 (b)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Troop 0196 (B)</t>
+          <t>TROOP 0196(B)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1273,18 +1413,27 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="Q29" s="2" t="n">
         <v>45671</v>
       </c>
       <c r="R29" s="2" t="n">
         <v>45675</v>
       </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>troop 0196 (b)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Troop 0196 (G)</t>
+          <t>TROOP 0196(G)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -1305,18 +1454,27 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="Q30" s="2" t="n">
         <v>45671</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>45675</v>
       </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>troop 0196 (g)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Troop 0209 (B)</t>
+          <t>TROOP 0209(B)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1344,11 +1502,16 @@
       <c r="R31" s="2" t="n">
         <v>45319</v>
       </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>troop 0209 (b)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Troop 0209 (G)</t>
+          <t>TROOP 0209(G)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1376,11 +1539,16 @@
       <c r="R32" s="2" t="n">
         <v>45319</v>
       </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>troop 0209 (g)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Troop 0297 (B)</t>
+          <t>TROOP 0297(B)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1408,11 +1576,16 @@
       <c r="R33" s="2" t="n">
         <v>45707</v>
       </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>troop 0297 (b)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Troop 0335 (B)</t>
+          <t>TROOP 0335(B)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1434,11 +1607,16 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>troop 0335 (b)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Troop 0392 (B)</t>
+          <t>TROOP 0392(B)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1462,7 +1640,11 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" s="2" t="n">
         <v>45675</v>
@@ -1470,11 +1652,16 @@
       <c r="R35" s="2" t="n">
         <v>45679</v>
       </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>troop 0392 (b)</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Troop 0392 (G)</t>
+          <t>TROOP 0392(G)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1498,7 +1685,11 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" s="2" t="n">
         <v>45675</v>
@@ -1506,11 +1697,16 @@
       <c r="R36" s="2" t="n">
         <v>45679</v>
       </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>troop 0392 (g)</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Troop 0399 (B)</t>
+          <t>TROOP 0399(B)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1532,11 +1728,16 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>troop 0399 (b)</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Troop 0399 (G)</t>
+          <t>TROOP 0399(G)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1558,11 +1759,16 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>troop 0399 (g)</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Troop 0499 (B)</t>
+          <t>TROOP 0499(B)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1584,11 +1790,16 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>troop 0499 (b)</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Troop 0964 (B)</t>
+          <t>TROOP 0964(B)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1610,6 +1821,11 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>troop 0964 (b)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
